--- a/ScoreDatabase.xlsx
+++ b/ScoreDatabase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,6 +1531,363 @@
         <v>0.9066882133483887</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>32</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5100363294283549</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.1379436731338501</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.1122070988019307</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.05105317036310832</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.1207146445910136</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1465730428695679</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.04501304229100545</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.03799559672673544</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.05065822601318359</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.08503950834274292</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.3982537905375163</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.038130478064219</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>10</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.2209033966064453</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5444023569424947</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>39</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.1254425287246704</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5097094178199768</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>40</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.05235658486684163</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.03746788899103801</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>41</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>10</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.1752272129058838</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.4498495141665141</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.2288456320762634</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.4461415926615397</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>43</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.05925114552179973</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.05913585424423218</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>44</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.02632412513097127</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.06713658968607585</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>45</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.02119371891021728</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.03664478858311971</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>46</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.0660416046778361</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.03993319670359294</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>47</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01863482395807902</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.02957114775975545</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>48</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01867716312408447</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.04112821420033773</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>49</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.05096803903579712</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.05055300792058309</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>50</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.5126078685124715</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.425563375155131</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>51</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>5</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.10612739721934</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.2804775913556417</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.800457636515299e-05</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.263049674034119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
